--- a/Kubernates.xlsx
+++ b/Kubernates.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -48,15 +55,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +113,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +148,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +356,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="V9" sqref="T9:V12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="2" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Kubernates.xlsx
+++ b/Kubernates.xlsx
@@ -7,15 +7,437 @@
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="command" sheetId="1" r:id="rId1"/>
+    <sheet name="command_linux" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
+  <si>
+    <t>node&amp;pod確認</t>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>node確認</t>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kubectl get nodes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pod確認</t>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kubectl get pods</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全てのpod確認</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kubectl get pods --all-namespaces</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pod確認（簡易）</t>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kubectl get pods -o wide</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pod確認（詳細な内容を表示）</t>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kubelet削除</t>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kubectl delete pod &lt;pod name&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>停止</t>
+    <rPh sb="0" eb="2">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kubelet停止</t>
+    <rPh sb="7" eb="9">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※workerで実施</t>
+    <rPh sb="8" eb="10">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>systemctl stop kubelet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kubelet get pod</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pod作成</t>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kubectl create -f &lt;yamlファイルパス&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kubectl delete -f &lt;yamlファイルパス&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yamlファイルから</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>imageから</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・・・deprecated -&gt; create deployment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kubectl run &lt;pod name&gt; --image=&lt;image name&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kubectl create deployment &lt;pod name&gt; --image=&lt;image name&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pod削除</t>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yamlファイルから</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kubectl delete deployment &lt;image name&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>API Version 確認</t>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>api-version</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kubectl api-versions</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字列 replace</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sed -i `&lt;pattern&gt;` 対象ファイル</t>
+    <rPh sb="19" eb="21">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ i -&gt; --in-placeの略語　：　変更した内容を現在のファイルにすぐ適用するという意味</t>
+    <rPh sb="18" eb="20">
+      <t>リャクゴ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>イミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例） sed -i `s/replicas: 3/replicas: 6/` echo-hname.yaml</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>apply</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kubelet apply -f &lt;yamlファイル&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※最初からapplyで生成しなかった場合警告が表示される。（動作には問題なし）</t>
+    <rPh sb="1" eb="3">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケイコク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※実行途中、yamlファイルの設定を修正した場合、実行中のpodに適用するときにも使われる。</t>
+    <rPh sb="1" eb="3">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トチュウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>ジッコウチュウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※Ojbect生成コマンド比較</t>
+    <rPh sb="7" eb="9">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>区分</t>
+    <rPh sb="0" eb="2">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コマンド実行</t>
+    <rPh sb="4" eb="6">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル実行</t>
+    <rPh sb="4" eb="6">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更可能</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実行便利性</t>
+    <rPh sb="0" eb="2">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ベンリセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能維持</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Run</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制限的</t>
+    <rPh sb="0" eb="3">
+      <t>セイゲンテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とても良い</t>
+    <rPh sb="3" eb="4">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Create</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Apply</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>良い</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>様々な機能が可能</t>
+    <rPh sb="0" eb="2">
+      <t>サマザマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -30,16 +452,31 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -47,12 +484,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -357,16 +841,511 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="D2:AH66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="V9" sqref="T9:V12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BH42" sqref="BH42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="2" defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="2" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D25" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="G38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="G39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="G41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="6:34" ht="16.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA42" s="2"/>
+      <c r="AB42" s="2"/>
+      <c r="AC42" s="2"/>
+      <c r="AD42" s="2"/>
+      <c r="AE42" s="2"/>
+      <c r="AF42" s="2"/>
+      <c r="AG42" s="2"/>
+      <c r="AH42" s="2"/>
+    </row>
+    <row r="43" spans="6:34" ht="16.8" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="G43" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA43" s="3"/>
+      <c r="AB43" s="3"/>
+      <c r="AC43" s="3"/>
+      <c r="AD43" s="3"/>
+      <c r="AE43" s="3"/>
+      <c r="AF43" s="3"/>
+      <c r="AG43" s="3"/>
+      <c r="AH43" s="3"/>
+    </row>
+    <row r="44" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="G44" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA44" s="4"/>
+      <c r="AB44" s="4"/>
+      <c r="AC44" s="4"/>
+      <c r="AD44" s="4"/>
+      <c r="AE44" s="4"/>
+      <c r="AF44" s="4"/>
+      <c r="AG44" s="4"/>
+      <c r="AH44" s="4"/>
+    </row>
+    <row r="45" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="G45" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA45" s="4"/>
+      <c r="AB45" s="4"/>
+      <c r="AC45" s="4"/>
+      <c r="AD45" s="4"/>
+      <c r="AE45" s="4"/>
+      <c r="AF45" s="4"/>
+      <c r="AG45" s="4"/>
+      <c r="AH45" s="4"/>
+    </row>
+    <row r="46" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="G46" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="U46" s="4"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4"/>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA46" s="4"/>
+      <c r="AB46" s="4"/>
+      <c r="AC46" s="4"/>
+      <c r="AD46" s="4"/>
+      <c r="AE46" s="4"/>
+      <c r="AF46" s="4"/>
+      <c r="AG46" s="4"/>
+      <c r="AH46" s="4"/>
+    </row>
+    <row r="47" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="G47" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U47" s="4"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="4"/>
+      <c r="X47" s="4"/>
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA47" s="4"/>
+      <c r="AB47" s="4"/>
+      <c r="AC47" s="4"/>
+      <c r="AD47" s="4"/>
+      <c r="AE47" s="4"/>
+      <c r="AF47" s="4"/>
+      <c r="AG47" s="4"/>
+      <c r="AH47" s="4"/>
+    </row>
+    <row r="49" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D49" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D55" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E60" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F62" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F63" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F65" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F66" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="N47:S47"/>
+    <mergeCell ref="G42:M42"/>
+    <mergeCell ref="G43:M43"/>
+    <mergeCell ref="G44:M44"/>
+    <mergeCell ref="G45:M45"/>
+    <mergeCell ref="G46:M46"/>
+    <mergeCell ref="G47:M47"/>
+    <mergeCell ref="N42:S42"/>
+    <mergeCell ref="N43:S43"/>
+    <mergeCell ref="N44:S44"/>
+    <mergeCell ref="N45:S45"/>
+    <mergeCell ref="N46:S46"/>
+    <mergeCell ref="Z47:AH47"/>
+    <mergeCell ref="T42:Y42"/>
+    <mergeCell ref="T43:Y43"/>
+    <mergeCell ref="T44:Y44"/>
+    <mergeCell ref="T45:Y45"/>
+    <mergeCell ref="T46:Y46"/>
+    <mergeCell ref="T47:Y47"/>
+    <mergeCell ref="Z42:AH42"/>
+    <mergeCell ref="Z43:AH43"/>
+    <mergeCell ref="Z44:AH44"/>
+    <mergeCell ref="Z45:AH45"/>
+    <mergeCell ref="Z46:AH46"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D4:F8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2" defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="2" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Kubernates.xlsx
+++ b/Kubernates.xlsx
@@ -11,12 +11,11 @@
     <sheet name="command_linux" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
   <si>
     <t>node&amp;pod確認</t>
     <rPh sb="8" eb="10">
@@ -429,6 +428,148 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pod接続</t>
+    <rPh sb="3" eb="5">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kubectl exec -it &lt;pod名&gt; -- /bin/bash</t>
+    <rPh sb="21" eb="22">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※「--」の意味</t>
+    <rPh sb="6" eb="8">
+      <t>イミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どれのパラメータか区別するために使う</t>
+    <rPh sb="9" eb="11">
+      <t>クベツ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lsのoption</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>execのoption</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ex) kubectl exec </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-it</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nginx-pod </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>--</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ls </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /run</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※--で区分</t>
+    <rPh sb="4" eb="6">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pod数変更</t>
+    <rPh sb="3" eb="4">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kubectl scale deployment &lt;deploy 名&gt; --replicas=&lt;pod数&gt;</t>
+    <rPh sb="33" eb="34">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>スウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -437,7 +578,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -455,6 +596,31 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
@@ -531,12 +697,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -841,15 +1008,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:AH66"/>
+  <dimension ref="D2:AH77"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BH42" sqref="BH42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="2" style="1"/>
+    <col min="5" max="5" width="2" style="5"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:6" x14ac:dyDescent="0.2">
@@ -858,7 +1026,7 @@
       </c>
     </row>
     <row r="4" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E4" t="s">
+      <c r="E4" s="5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -873,7 +1041,7 @@
       </c>
     </row>
     <row r="9" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E9" t="s">
+      <c r="E9" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -883,7 +1051,7 @@
       </c>
     </row>
     <row r="12" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E12" t="s">
+      <c r="E12" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -928,382 +1096,433 @@
       </c>
     </row>
     <row r="25" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="O30" t="s">
+        <v>63</v>
+      </c>
+      <c r="W30" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D31" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="E27" t="s">
+    <row r="33" spans="5:34" x14ac:dyDescent="0.2">
+      <c r="E33" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="F29" t="s">
+    <row r="35" spans="5:34" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="F30" t="s">
+    <row r="36" spans="5:34" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
         <v>25</v>
       </c>
-      <c r="AC30" t="s">
+      <c r="AC36" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="F31" t="s">
+    <row r="37" spans="5:34" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="6:34" x14ac:dyDescent="0.2">
-      <c r="F33" t="s">
+    <row r="39" spans="5:34" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="6:34" x14ac:dyDescent="0.2">
-      <c r="F34" t="s">
+    <row r="40" spans="5:34" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="6:34" x14ac:dyDescent="0.2">
-      <c r="F36" t="s">
+    <row r="42" spans="5:34" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="6:34" x14ac:dyDescent="0.2">
-      <c r="F37" t="s">
+    <row r="43" spans="5:34" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="6:34" x14ac:dyDescent="0.2">
-      <c r="G38" t="s">
+    <row r="44" spans="5:34" x14ac:dyDescent="0.2">
+      <c r="G44" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="6:34" x14ac:dyDescent="0.2">
-      <c r="G39" t="s">
+    <row r="45" spans="5:34" x14ac:dyDescent="0.2">
+      <c r="G45" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="6:34" x14ac:dyDescent="0.2">
-      <c r="G41" t="s">
+    <row r="47" spans="5:34" x14ac:dyDescent="0.2">
+      <c r="G47" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="6:34" ht="16.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G42" s="2" t="s">
+    <row r="48" spans="5:34" ht="16.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G48" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2" t="s">
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2" t="s">
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-      <c r="X42" s="2"/>
-      <c r="Y42" s="2"/>
-      <c r="Z42" s="2" t="s">
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AA42" s="2"/>
-      <c r="AB42" s="2"/>
-      <c r="AC42" s="2"/>
-      <c r="AD42" s="2"/>
-      <c r="AE42" s="2"/>
-      <c r="AF42" s="2"/>
-      <c r="AG42" s="2"/>
-      <c r="AH42" s="2"/>
-    </row>
-    <row r="43" spans="6:34" ht="16.8" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="G43" s="3" t="s">
+      <c r="AA48" s="3"/>
+      <c r="AB48" s="3"/>
+      <c r="AC48" s="3"/>
+      <c r="AD48" s="3"/>
+      <c r="AE48" s="3"/>
+      <c r="AF48" s="3"/>
+      <c r="AG48" s="3"/>
+      <c r="AH48" s="3"/>
+    </row>
+    <row r="49" spans="4:34" ht="16.8" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="G49" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3" t="s">
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="3" t="s">
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="U43" s="3"/>
-      <c r="V43" s="3"/>
-      <c r="W43" s="3"/>
-      <c r="X43" s="3"/>
-      <c r="Y43" s="3"/>
-      <c r="Z43" s="3" t="s">
+      <c r="U49" s="4"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AA43" s="3"/>
-      <c r="AB43" s="3"/>
-      <c r="AC43" s="3"/>
-      <c r="AD43" s="3"/>
-      <c r="AE43" s="3"/>
-      <c r="AF43" s="3"/>
-      <c r="AG43" s="3"/>
-      <c r="AH43" s="3"/>
-    </row>
-    <row r="44" spans="6:34" x14ac:dyDescent="0.2">
-      <c r="G44" s="4" t="s">
+      <c r="AA49" s="4"/>
+      <c r="AB49" s="4"/>
+      <c r="AC49" s="4"/>
+      <c r="AD49" s="4"/>
+      <c r="AE49" s="4"/>
+      <c r="AF49" s="4"/>
+      <c r="AG49" s="4"/>
+      <c r="AH49" s="4"/>
+    </row>
+    <row r="50" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="G50" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4" t="s">
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="4"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="4" t="s">
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="U44" s="4"/>
-      <c r="V44" s="4"/>
-      <c r="W44" s="4"/>
-      <c r="X44" s="4"/>
-      <c r="Y44" s="4"/>
-      <c r="Z44" s="4" t="s">
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AA44" s="4"/>
-      <c r="AB44" s="4"/>
-      <c r="AC44" s="4"/>
-      <c r="AD44" s="4"/>
-      <c r="AE44" s="4"/>
-      <c r="AF44" s="4"/>
-      <c r="AG44" s="4"/>
-      <c r="AH44" s="4"/>
-    </row>
-    <row r="45" spans="6:34" x14ac:dyDescent="0.2">
-      <c r="G45" s="4" t="s">
+      <c r="AA50" s="2"/>
+      <c r="AB50" s="2"/>
+      <c r="AC50" s="2"/>
+      <c r="AD50" s="2"/>
+      <c r="AE50" s="2"/>
+      <c r="AF50" s="2"/>
+      <c r="AG50" s="2"/>
+      <c r="AH50" s="2"/>
+    </row>
+    <row r="51" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="G51" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4" t="s">
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="4"/>
-      <c r="S45" s="4"/>
-      <c r="T45" s="4" t="s">
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="U45" s="4"/>
-      <c r="V45" s="4"/>
-      <c r="W45" s="4"/>
-      <c r="X45" s="4"/>
-      <c r="Y45" s="4"/>
-      <c r="Z45" s="4" t="s">
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AA45" s="4"/>
-      <c r="AB45" s="4"/>
-      <c r="AC45" s="4"/>
-      <c r="AD45" s="4"/>
-      <c r="AE45" s="4"/>
-      <c r="AF45" s="4"/>
-      <c r="AG45" s="4"/>
-      <c r="AH45" s="4"/>
-    </row>
-    <row r="46" spans="6:34" x14ac:dyDescent="0.2">
-      <c r="G46" s="4" t="s">
+      <c r="AA51" s="2"/>
+      <c r="AB51" s="2"/>
+      <c r="AC51" s="2"/>
+      <c r="AD51" s="2"/>
+      <c r="AE51" s="2"/>
+      <c r="AF51" s="2"/>
+      <c r="AG51" s="2"/>
+      <c r="AH51" s="2"/>
+    </row>
+    <row r="52" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="G52" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4" t="s">
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="4"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="4" t="s">
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="U46" s="4"/>
-      <c r="V46" s="4"/>
-      <c r="W46" s="4"/>
-      <c r="X46" s="4"/>
-      <c r="Y46" s="4"/>
-      <c r="Z46" s="4" t="s">
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="2"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="2"/>
+      <c r="Z52" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AA46" s="4"/>
-      <c r="AB46" s="4"/>
-      <c r="AC46" s="4"/>
-      <c r="AD46" s="4"/>
-      <c r="AE46" s="4"/>
-      <c r="AF46" s="4"/>
-      <c r="AG46" s="4"/>
-      <c r="AH46" s="4"/>
-    </row>
-    <row r="47" spans="6:34" x14ac:dyDescent="0.2">
-      <c r="G47" s="4" t="s">
+      <c r="AA52" s="2"/>
+      <c r="AB52" s="2"/>
+      <c r="AC52" s="2"/>
+      <c r="AD52" s="2"/>
+      <c r="AE52" s="2"/>
+      <c r="AF52" s="2"/>
+      <c r="AG52" s="2"/>
+      <c r="AH52" s="2"/>
+    </row>
+    <row r="53" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="G53" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4" t="s">
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="4"/>
-      <c r="S47" s="4"/>
-      <c r="T47" s="4" t="s">
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="U47" s="4"/>
-      <c r="V47" s="4"/>
-      <c r="W47" s="4"/>
-      <c r="X47" s="4"/>
-      <c r="Y47" s="4"/>
-      <c r="Z47" s="4" t="s">
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2"/>
+      <c r="X53" s="2"/>
+      <c r="Y53" s="2"/>
+      <c r="Z53" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AA47" s="4"/>
-      <c r="AB47" s="4"/>
-      <c r="AC47" s="4"/>
-      <c r="AD47" s="4"/>
-      <c r="AE47" s="4"/>
-      <c r="AF47" s="4"/>
-      <c r="AG47" s="4"/>
-      <c r="AH47" s="4"/>
-    </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D49" s="1" t="s">
+      <c r="AA53" s="2"/>
+      <c r="AB53" s="2"/>
+      <c r="AC53" s="2"/>
+      <c r="AD53" s="2"/>
+      <c r="AE53" s="2"/>
+      <c r="AF53" s="2"/>
+      <c r="AG53" s="2"/>
+      <c r="AH53" s="2"/>
+    </row>
+    <row r="55" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="D55" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E51" t="s">
+    <row r="57" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="E57" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F52" t="s">
+    <row r="58" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="F58" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F53" t="s">
+    <row r="59" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="F59" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D55" s="1" t="s">
+    <row r="61" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="D61" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E57" t="s">
+    <row r="63" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="E63" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F58" t="s">
+    <row r="64" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="F64" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E60" t="s">
+    <row r="66" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E66" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F62" t="s">
+    <row r="68" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F68" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F63" t="s">
+    <row r="69" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F69" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F65" t="s">
+    <row r="71" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F71" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F66" t="s">
+    <row r="72" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F72" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D74" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E76" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F77" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="N47:S47"/>
-    <mergeCell ref="G42:M42"/>
-    <mergeCell ref="G43:M43"/>
-    <mergeCell ref="G44:M44"/>
-    <mergeCell ref="G45:M45"/>
-    <mergeCell ref="G46:M46"/>
-    <mergeCell ref="G47:M47"/>
-    <mergeCell ref="N42:S42"/>
-    <mergeCell ref="N43:S43"/>
-    <mergeCell ref="N44:S44"/>
-    <mergeCell ref="N45:S45"/>
-    <mergeCell ref="N46:S46"/>
-    <mergeCell ref="Z47:AH47"/>
-    <mergeCell ref="T42:Y42"/>
-    <mergeCell ref="T43:Y43"/>
-    <mergeCell ref="T44:Y44"/>
-    <mergeCell ref="T45:Y45"/>
-    <mergeCell ref="T46:Y46"/>
-    <mergeCell ref="T47:Y47"/>
-    <mergeCell ref="Z42:AH42"/>
-    <mergeCell ref="Z43:AH43"/>
-    <mergeCell ref="Z44:AH44"/>
-    <mergeCell ref="Z45:AH45"/>
-    <mergeCell ref="Z46:AH46"/>
+    <mergeCell ref="Z53:AH53"/>
+    <mergeCell ref="T48:Y48"/>
+    <mergeCell ref="T49:Y49"/>
+    <mergeCell ref="T50:Y50"/>
+    <mergeCell ref="T51:Y51"/>
+    <mergeCell ref="T52:Y52"/>
+    <mergeCell ref="T53:Y53"/>
+    <mergeCell ref="Z48:AH48"/>
+    <mergeCell ref="Z49:AH49"/>
+    <mergeCell ref="Z50:AH50"/>
+    <mergeCell ref="Z51:AH51"/>
+    <mergeCell ref="Z52:AH52"/>
+    <mergeCell ref="N53:S53"/>
+    <mergeCell ref="G48:M48"/>
+    <mergeCell ref="G49:M49"/>
+    <mergeCell ref="G50:M50"/>
+    <mergeCell ref="G51:M51"/>
+    <mergeCell ref="G52:M52"/>
+    <mergeCell ref="G53:M53"/>
+    <mergeCell ref="N48:S48"/>
+    <mergeCell ref="N49:S49"/>
+    <mergeCell ref="N50:S50"/>
+    <mergeCell ref="N51:S51"/>
+    <mergeCell ref="N52:S52"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kubernates.xlsx
+++ b/Kubernates.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="80">
   <si>
     <t>node&amp;pod確認</t>
     <rPh sb="8" eb="10">
@@ -570,6 +570,149 @@
     </rPh>
     <rPh sb="51" eb="52">
       <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザの任意で組み合わせる</t>
+    <rPh sb="4" eb="6">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kubectl get pods \</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-o=custom-columns=NAME: .metadata.name, IP: .status.podIP, STATUS: .status.phase, NODE: .spec.nodeName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※配布されたPODの詳細を確認する方法</t>
+    <rPh sb="1" eb="3">
+      <t>ハイフ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kubectl get pod &lt;pod名&gt; -o yaml &gt; pod.yaml</t>
+    <rPh sb="20" eb="21">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pod.yamlの中を確認し、上記custom-columnsを設定すればOK</t>
+    <rPh sb="9" eb="10">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PODの割り当て中止</t>
+    <rPh sb="4" eb="5">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チュウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nodeに何か問題が発生した場合、これ以上PODが割り当てられることを停止する場合</t>
+    <rPh sb="5" eb="6">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kubectl cordon &lt;node名&gt;</t>
+    <rPh sb="20" eb="21">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※現在持っているPODはそのまま維持。新規PODは割り当てられない。</t>
+    <rPh sb="1" eb="3">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※割り当て中止解除： kubectl uncordon &lt;node名&gt;</t>
+    <rPh sb="7" eb="9">
+      <t>カイジョ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>メイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -697,13 +840,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1008,16 +1152,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:AH77"/>
+  <dimension ref="D2:AH90"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="2" style="1"/>
-    <col min="5" max="5" width="2" style="5"/>
+    <col min="5" max="5" width="2" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:6" x14ac:dyDescent="0.2">
@@ -1026,7 +1170,7 @@
       </c>
     </row>
     <row r="4" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1041,7 +1185,7 @@
       </c>
     </row>
     <row r="9" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1051,7 +1195,7 @@
       </c>
     </row>
     <row r="12" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1070,459 +1214,517 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="4:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:8" x14ac:dyDescent="0.2">
       <c r="F17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="4:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="5:8" x14ac:dyDescent="0.2">
       <c r="F19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="4:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="5:8" x14ac:dyDescent="0.2">
       <c r="F20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="4:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="5:8" x14ac:dyDescent="0.2">
       <c r="F22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="4:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="5:8" x14ac:dyDescent="0.2">
       <c r="F23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="E25" s="5" t="s">
+    <row r="25" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F27" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F28" s="6"/>
+      <c r="G28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F29" s="6"/>
+      <c r="H29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F30" s="6"/>
+      <c r="H30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E32" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="F26" t="s">
+    <row r="33" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="F27" t="s">
+    <row r="34" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="G28" t="s">
+    <row r="35" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="G35" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="G29" t="s">
+    <row r="36" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="G36" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="O30" t="s">
+    <row r="37" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="O37" t="s">
         <v>63</v>
       </c>
-      <c r="W30" t="s">
+      <c r="W37" t="s">
         <v>62</v>
       </c>
-      <c r="AC30" t="s">
+      <c r="AC37" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="D31" s="1" t="s">
+    <row r="38" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D38" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="5:34" x14ac:dyDescent="0.2">
-      <c r="E33" s="5" t="s">
+    <row r="40" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="E40" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="5:34" x14ac:dyDescent="0.2">
-      <c r="F35" t="s">
+    <row r="42" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="5:34" x14ac:dyDescent="0.2">
-      <c r="F36" t="s">
+    <row r="43" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
         <v>25</v>
       </c>
-      <c r="AC36" t="s">
+      <c r="AC43" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="5:34" x14ac:dyDescent="0.2">
-      <c r="F37" t="s">
+    <row r="44" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="5:34" x14ac:dyDescent="0.2">
-      <c r="F39" t="s">
+    <row r="46" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="5:34" x14ac:dyDescent="0.2">
-      <c r="F40" t="s">
+    <row r="47" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="5:34" x14ac:dyDescent="0.2">
-      <c r="F42" t="s">
+    <row r="49" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="5:34" x14ac:dyDescent="0.2">
-      <c r="F43" t="s">
+    <row r="50" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="5:34" x14ac:dyDescent="0.2">
-      <c r="G44" t="s">
+    <row r="51" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="G51" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="5:34" x14ac:dyDescent="0.2">
-      <c r="G45" t="s">
+    <row r="52" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="G52" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="5:34" x14ac:dyDescent="0.2">
-      <c r="G47" t="s">
+    <row r="54" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="G54" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="5:34" ht="16.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G48" s="3" t="s">
+    <row r="55" spans="4:34" ht="16.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G55" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3" t="s">
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="3" t="s">
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
+      <c r="S55" s="4"/>
+      <c r="T55" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="U48" s="3"/>
-      <c r="V48" s="3"/>
-      <c r="W48" s="3"/>
-      <c r="X48" s="3"/>
-      <c r="Y48" s="3"/>
-      <c r="Z48" s="3" t="s">
+      <c r="U55" s="4"/>
+      <c r="V55" s="4"/>
+      <c r="W55" s="4"/>
+      <c r="X55" s="4"/>
+      <c r="Y55" s="4"/>
+      <c r="Z55" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AA48" s="3"/>
-      <c r="AB48" s="3"/>
-      <c r="AC48" s="3"/>
-      <c r="AD48" s="3"/>
-      <c r="AE48" s="3"/>
-      <c r="AF48" s="3"/>
-      <c r="AG48" s="3"/>
-      <c r="AH48" s="3"/>
-    </row>
-    <row r="49" spans="4:34" ht="16.8" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="G49" s="4" t="s">
+      <c r="AA55" s="4"/>
+      <c r="AB55" s="4"/>
+      <c r="AC55" s="4"/>
+      <c r="AD55" s="4"/>
+      <c r="AE55" s="4"/>
+      <c r="AF55" s="4"/>
+      <c r="AG55" s="4"/>
+      <c r="AH55" s="4"/>
+    </row>
+    <row r="56" spans="4:34" ht="16.8" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="G56" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4" t="s">
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="O49" s="4"/>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="4"/>
-      <c r="S49" s="4"/>
-      <c r="T49" s="4" t="s">
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="U49" s="4"/>
-      <c r="V49" s="4"/>
-      <c r="W49" s="4"/>
-      <c r="X49" s="4"/>
-      <c r="Y49" s="4"/>
-      <c r="Z49" s="4" t="s">
+      <c r="U56" s="5"/>
+      <c r="V56" s="5"/>
+      <c r="W56" s="5"/>
+      <c r="X56" s="5"/>
+      <c r="Y56" s="5"/>
+      <c r="Z56" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AA49" s="4"/>
-      <c r="AB49" s="4"/>
-      <c r="AC49" s="4"/>
-      <c r="AD49" s="4"/>
-      <c r="AE49" s="4"/>
-      <c r="AF49" s="4"/>
-      <c r="AG49" s="4"/>
-      <c r="AH49" s="4"/>
-    </row>
-    <row r="50" spans="4:34" x14ac:dyDescent="0.2">
-      <c r="G50" s="2" t="s">
+      <c r="AA56" s="5"/>
+      <c r="AB56" s="5"/>
+      <c r="AC56" s="5"/>
+      <c r="AD56" s="5"/>
+      <c r="AE56" s="5"/>
+      <c r="AF56" s="5"/>
+      <c r="AG56" s="5"/>
+      <c r="AH56" s="5"/>
+    </row>
+    <row r="57" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="G57" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2" t="s">
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
-      <c r="T50" s="2" t="s">
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="U50" s="2"/>
-      <c r="V50" s="2"/>
-      <c r="W50" s="2"/>
-      <c r="X50" s="2"/>
-      <c r="Y50" s="2"/>
-      <c r="Z50" s="2" t="s">
+      <c r="U57" s="3"/>
+      <c r="V57" s="3"/>
+      <c r="W57" s="3"/>
+      <c r="X57" s="3"/>
+      <c r="Y57" s="3"/>
+      <c r="Z57" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AA50" s="2"/>
-      <c r="AB50" s="2"/>
-      <c r="AC50" s="2"/>
-      <c r="AD50" s="2"/>
-      <c r="AE50" s="2"/>
-      <c r="AF50" s="2"/>
-      <c r="AG50" s="2"/>
-      <c r="AH50" s="2"/>
-    </row>
-    <row r="51" spans="4:34" x14ac:dyDescent="0.2">
-      <c r="G51" s="2" t="s">
+      <c r="AA57" s="3"/>
+      <c r="AB57" s="3"/>
+      <c r="AC57" s="3"/>
+      <c r="AD57" s="3"/>
+      <c r="AE57" s="3"/>
+      <c r="AF57" s="3"/>
+      <c r="AG57" s="3"/>
+      <c r="AH57" s="3"/>
+    </row>
+    <row r="58" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="G58" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2" t="s">
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
-      <c r="T51" s="2" t="s">
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="U51" s="2"/>
-      <c r="V51" s="2"/>
-      <c r="W51" s="2"/>
-      <c r="X51" s="2"/>
-      <c r="Y51" s="2"/>
-      <c r="Z51" s="2" t="s">
+      <c r="U58" s="3"/>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3"/>
+      <c r="X58" s="3"/>
+      <c r="Y58" s="3"/>
+      <c r="Z58" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AA51" s="2"/>
-      <c r="AB51" s="2"/>
-      <c r="AC51" s="2"/>
-      <c r="AD51" s="2"/>
-      <c r="AE51" s="2"/>
-      <c r="AF51" s="2"/>
-      <c r="AG51" s="2"/>
-      <c r="AH51" s="2"/>
-    </row>
-    <row r="52" spans="4:34" x14ac:dyDescent="0.2">
-      <c r="G52" s="2" t="s">
+      <c r="AA58" s="3"/>
+      <c r="AB58" s="3"/>
+      <c r="AC58" s="3"/>
+      <c r="AD58" s="3"/>
+      <c r="AE58" s="3"/>
+      <c r="AF58" s="3"/>
+      <c r="AG58" s="3"/>
+      <c r="AH58" s="3"/>
+    </row>
+    <row r="59" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="G59" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2" t="s">
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="2"/>
-      <c r="S52" s="2"/>
-      <c r="T52" s="2" t="s">
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="U52" s="2"/>
-      <c r="V52" s="2"/>
-      <c r="W52" s="2"/>
-      <c r="X52" s="2"/>
-      <c r="Y52" s="2"/>
-      <c r="Z52" s="2" t="s">
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+      <c r="W59" s="3"/>
+      <c r="X59" s="3"/>
+      <c r="Y59" s="3"/>
+      <c r="Z59" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AA52" s="2"/>
-      <c r="AB52" s="2"/>
-      <c r="AC52" s="2"/>
-      <c r="AD52" s="2"/>
-      <c r="AE52" s="2"/>
-      <c r="AF52" s="2"/>
-      <c r="AG52" s="2"/>
-      <c r="AH52" s="2"/>
-    </row>
-    <row r="53" spans="4:34" x14ac:dyDescent="0.2">
-      <c r="G53" s="2" t="s">
+      <c r="AA59" s="3"/>
+      <c r="AB59" s="3"/>
+      <c r="AC59" s="3"/>
+      <c r="AD59" s="3"/>
+      <c r="AE59" s="3"/>
+      <c r="AF59" s="3"/>
+      <c r="AG59" s="3"/>
+      <c r="AH59" s="3"/>
+    </row>
+    <row r="60" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="G60" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2" t="s">
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2" t="s">
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="U53" s="2"/>
-      <c r="V53" s="2"/>
-      <c r="W53" s="2"/>
-      <c r="X53" s="2"/>
-      <c r="Y53" s="2"/>
-      <c r="Z53" s="2" t="s">
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3"/>
+      <c r="X60" s="3"/>
+      <c r="Y60" s="3"/>
+      <c r="Z60" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AA53" s="2"/>
-      <c r="AB53" s="2"/>
-      <c r="AC53" s="2"/>
-      <c r="AD53" s="2"/>
-      <c r="AE53" s="2"/>
-      <c r="AF53" s="2"/>
-      <c r="AG53" s="2"/>
-      <c r="AH53" s="2"/>
-    </row>
-    <row r="55" spans="4:34" x14ac:dyDescent="0.2">
-      <c r="D55" s="1" t="s">
+      <c r="AA60" s="3"/>
+      <c r="AB60" s="3"/>
+      <c r="AC60" s="3"/>
+      <c r="AD60" s="3"/>
+      <c r="AE60" s="3"/>
+      <c r="AF60" s="3"/>
+      <c r="AG60" s="3"/>
+      <c r="AH60" s="3"/>
+    </row>
+    <row r="62" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="D62" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="4:34" x14ac:dyDescent="0.2">
-      <c r="E57" s="5" t="s">
+    <row r="64" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="E64" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="4:34" x14ac:dyDescent="0.2">
-      <c r="F58" t="s">
+    <row r="65" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F65" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="4:34" x14ac:dyDescent="0.2">
-      <c r="F59" t="s">
+    <row r="66" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F66" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="4:34" x14ac:dyDescent="0.2">
-      <c r="D61" s="1" t="s">
+    <row r="68" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E68" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F69" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F70" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G71" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="72" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G72" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D74" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="4:34" x14ac:dyDescent="0.2">
-      <c r="E63" s="5" t="s">
+    <row r="76" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E76" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="4:34" x14ac:dyDescent="0.2">
-      <c r="F64" t="s">
+    <row r="77" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F77" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E66" s="5" t="s">
+    <row r="79" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E79" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F68" t="s">
+    <row r="81" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F81" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F69" t="s">
+    <row r="82" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F82" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F71" t="s">
+    <row r="84" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F84" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F72" t="s">
+    <row r="85" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F85" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D74" s="1" t="s">
+    <row r="87" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D87" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E76" s="5" t="s">
+    <row r="89" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E89" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="77" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F77" t="s">
+    <row r="90" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F90" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="Z53:AH53"/>
-    <mergeCell ref="T48:Y48"/>
-    <mergeCell ref="T49:Y49"/>
-    <mergeCell ref="T50:Y50"/>
-    <mergeCell ref="T51:Y51"/>
-    <mergeCell ref="T52:Y52"/>
-    <mergeCell ref="T53:Y53"/>
-    <mergeCell ref="Z48:AH48"/>
-    <mergeCell ref="Z49:AH49"/>
-    <mergeCell ref="Z50:AH50"/>
-    <mergeCell ref="Z51:AH51"/>
-    <mergeCell ref="Z52:AH52"/>
-    <mergeCell ref="N53:S53"/>
-    <mergeCell ref="G48:M48"/>
-    <mergeCell ref="G49:M49"/>
-    <mergeCell ref="G50:M50"/>
-    <mergeCell ref="G51:M51"/>
-    <mergeCell ref="G52:M52"/>
-    <mergeCell ref="G53:M53"/>
-    <mergeCell ref="N48:S48"/>
-    <mergeCell ref="N49:S49"/>
-    <mergeCell ref="N50:S50"/>
-    <mergeCell ref="N51:S51"/>
-    <mergeCell ref="N52:S52"/>
+    <mergeCell ref="N60:S60"/>
+    <mergeCell ref="G55:M55"/>
+    <mergeCell ref="G56:M56"/>
+    <mergeCell ref="G57:M57"/>
+    <mergeCell ref="G58:M58"/>
+    <mergeCell ref="G59:M59"/>
+    <mergeCell ref="G60:M60"/>
+    <mergeCell ref="N55:S55"/>
+    <mergeCell ref="N56:S56"/>
+    <mergeCell ref="N57:S57"/>
+    <mergeCell ref="N58:S58"/>
+    <mergeCell ref="N59:S59"/>
+    <mergeCell ref="Z60:AH60"/>
+    <mergeCell ref="T55:Y55"/>
+    <mergeCell ref="T56:Y56"/>
+    <mergeCell ref="T57:Y57"/>
+    <mergeCell ref="T58:Y58"/>
+    <mergeCell ref="T59:Y59"/>
+    <mergeCell ref="T60:Y60"/>
+    <mergeCell ref="Z55:AH55"/>
+    <mergeCell ref="Z56:AH56"/>
+    <mergeCell ref="Z57:AH57"/>
+    <mergeCell ref="Z58:AH58"/>
+    <mergeCell ref="Z59:AH59"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
